--- a/PflichtenheftOrg/Ext. files/Terminplan.xlsx
+++ b/PflichtenheftOrg/Ext. files/Terminplan.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carme\Documents\GitHub\Pro1\Pflichtenheft\Ext. files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklausschwegler/OneDrive/FHNW/04_Unterricht/FS19/pro2E/Team1/EMI-Filter/PflichtenheftOrg/Ext. files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{87748991-6F6B-4598-A300-83F82413F371}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="10_ncr:100000_{87748991-6F6B-4598-A300-83F82413F371}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{247949C2-BF01-614F-B757-529778CCD0E7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" xr2:uid="{26B4C650-3779-4D35-AA8A-FD08EA6944BC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28780" windowHeight="12040" xr2:uid="{26B4C650-3779-4D35-AA8A-FD08EA6944BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -147,21 +153,6 @@
     <t>Aufwand [PS]</t>
   </si>
   <si>
-    <t>KW 38</t>
-  </si>
-  <si>
-    <t>KW 40</t>
-  </si>
-  <si>
-    <t>KW 42</t>
-  </si>
-  <si>
-    <t>KW 44</t>
-  </si>
-  <si>
-    <t>KW 46</t>
-  </si>
-  <si>
     <t>KW 48</t>
   </si>
   <si>
@@ -177,21 +168,6 @@
     <t>KW 02</t>
   </si>
   <si>
-    <t>KW 39</t>
-  </si>
-  <si>
-    <t>KW 41</t>
-  </si>
-  <si>
-    <t>KW 43</t>
-  </si>
-  <si>
-    <t>KW 45</t>
-  </si>
-  <si>
-    <t>KW 47</t>
-  </si>
-  <si>
     <t>KW 49</t>
   </si>
   <si>
@@ -268,6 +244,36 @@
   </si>
   <si>
     <t>6. Reserve</t>
+  </si>
+  <si>
+    <t>KW 8</t>
+  </si>
+  <si>
+    <t>KW 9</t>
+  </si>
+  <si>
+    <t>KW 10</t>
+  </si>
+  <si>
+    <t>KW 11</t>
+  </si>
+  <si>
+    <t>KW 12</t>
+  </si>
+  <si>
+    <t>KW 13</t>
+  </si>
+  <si>
+    <t>KW 14</t>
+  </si>
+  <si>
+    <t>KW 15</t>
+  </si>
+  <si>
+    <t>KW 16</t>
+  </si>
+  <si>
+    <t>KW 17</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1120,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1130,7 +1136,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1429,16 +1435,16 @@
   <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C2" sqref="C2:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="9"/>
@@ -1467,133 +1473,133 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="10" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>54</v>
+        <v>78</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="11" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="S2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="11" t="s">
-        <v>56</v>
-      </c>
       <c r="U2" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="14" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F3" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="N3" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="O3" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="P3" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>75</v>
-      </c>
       <c r="Q3" s="16" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="R3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="W3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="T3" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="U3" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1620,13 +1626,13 @@
       <c r="V4" s="10"/>
       <c r="W4" s="22"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="55" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
@@ -1649,7 +1655,7 @@
       <c r="V5" s="34"/>
       <c r="W5" s="36"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
         <v>2</v>
       </c>
@@ -1657,7 +1663,7 @@
       <c r="C6" s="38"/>
       <c r="D6" s="39"/>
       <c r="E6" s="56" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -1678,7 +1684,7 @@
       <c r="V6" s="38"/>
       <c r="W6" s="41"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
         <v>3</v>
       </c>
@@ -1690,7 +1696,7 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
       <c r="I7" s="56" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="J7" s="39"/>
       <c r="K7" s="39"/>
@@ -1707,7 +1713,7 @@
       <c r="V7" s="38"/>
       <c r="W7" s="41"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
         <v>4</v>
       </c>
@@ -1722,7 +1728,7 @@
       <c r="J8" s="39"/>
       <c r="K8" s="39"/>
       <c r="L8" s="56" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="M8" s="38"/>
       <c r="N8" s="40"/>
@@ -1736,7 +1742,7 @@
       <c r="V8" s="38"/>
       <c r="W8" s="41"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
         <v>5</v>
       </c>
@@ -1757,7 +1763,7 @@
       <c r="P9" s="39"/>
       <c r="Q9" s="41"/>
       <c r="R9" s="57" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="S9" s="39"/>
       <c r="T9" s="39"/>
@@ -1765,7 +1771,7 @@
       <c r="V9" s="38"/>
       <c r="W9" s="41"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
         <v>6</v>
       </c>
@@ -1788,13 +1794,13 @@
       <c r="R10" s="40"/>
       <c r="S10" s="39"/>
       <c r="T10" s="56" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="U10" s="42"/>
       <c r="V10" s="38"/>
       <c r="W10" s="41"/>
     </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>7</v>
       </c>
@@ -1820,10 +1826,10 @@
       <c r="U11" s="47"/>
       <c r="V11" s="43"/>
       <c r="W11" s="65" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="70" t="s">
         <v>8</v>
       </c>
@@ -1852,7 +1858,7 @@
       <c r="V12" s="49"/>
       <c r="W12" s="50"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="72" t="s">
         <v>9</v>
       </c>
@@ -1882,7 +1888,7 @@
       <c r="V13" s="49"/>
       <c r="W13" s="50"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="74" t="s">
         <v>10</v>
       </c>
@@ -1912,7 +1918,7 @@
       <c r="V14" s="85"/>
       <c r="W14" s="88"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>33</v>
       </c>
@@ -1942,7 +1948,7 @@
       <c r="V15" s="78"/>
       <c r="W15" s="80"/>
     </row>
-    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>34</v>
       </c>
@@ -1971,7 +1977,7 @@
       <c r="V16" s="39"/>
       <c r="W16" s="41"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>35</v>
       </c>
@@ -2000,7 +2006,7 @@
       <c r="V17" s="39"/>
       <c r="W17" s="41"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>36</v>
       </c>
@@ -2029,7 +2035,7 @@
       <c r="V18" s="39"/>
       <c r="W18" s="41"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>37</v>
       </c>
@@ -2059,7 +2065,7 @@
       <c r="V19" s="39"/>
       <c r="W19" s="41"/>
     </row>
-    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>38</v>
       </c>
@@ -2088,7 +2094,7 @@
       <c r="V20" s="39"/>
       <c r="W20" s="41"/>
     </row>
-    <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>11</v>
       </c>
@@ -2117,7 +2123,7 @@
       <c r="V21" s="39"/>
       <c r="W21" s="41"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>12</v>
       </c>
@@ -2146,7 +2152,7 @@
       <c r="V22" s="39"/>
       <c r="W22" s="41"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>13</v>
       </c>
@@ -2175,7 +2181,7 @@
       <c r="V23" s="39"/>
       <c r="W23" s="41"/>
     </row>
-    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>14</v>
       </c>
@@ -2204,7 +2210,7 @@
       <c r="V24" s="39"/>
       <c r="W24" s="41"/>
     </row>
-    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>15</v>
       </c>
@@ -2233,7 +2239,7 @@
       <c r="V25" s="39"/>
       <c r="W25" s="41"/>
     </row>
-    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>16</v>
       </c>
@@ -2262,7 +2268,7 @@
       <c r="V26" s="39"/>
       <c r="W26" s="41"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>17</v>
       </c>
@@ -2291,7 +2297,7 @@
       <c r="V27" s="44"/>
       <c r="W27" s="46"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="73" t="s">
         <v>18</v>
       </c>
@@ -2321,7 +2327,7 @@
       <c r="V28" s="85"/>
       <c r="W28" s="88"/>
     </row>
-    <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>19</v>
       </c>
@@ -2350,7 +2356,7 @@
       <c r="V29" s="78"/>
       <c r="W29" s="80"/>
     </row>
-    <row r="30" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>20</v>
       </c>
@@ -2379,7 +2385,7 @@
       <c r="V30" s="39"/>
       <c r="W30" s="41"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>21</v>
       </c>
@@ -2408,7 +2414,7 @@
       <c r="V31" s="44"/>
       <c r="W31" s="46"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="73" t="s">
         <v>22</v>
       </c>
@@ -2438,7 +2444,7 @@
       <c r="V32" s="85"/>
       <c r="W32" s="88"/>
     </row>
-    <row r="33" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
         <v>23</v>
       </c>
@@ -2467,7 +2473,7 @@
       <c r="V33" s="78"/>
       <c r="W33" s="80"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>24</v>
       </c>
@@ -2496,7 +2502,7 @@
       <c r="V34" s="39"/>
       <c r="W34" s="41"/>
     </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>25</v>
       </c>
@@ -2525,7 +2531,7 @@
       <c r="V35" s="39"/>
       <c r="W35" s="41"/>
     </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
         <v>26</v>
       </c>
@@ -2554,7 +2560,7 @@
       <c r="V36" s="44"/>
       <c r="W36" s="46"/>
     </row>
-    <row r="37" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="73" t="s">
         <v>27</v>
       </c>
@@ -2584,7 +2590,7 @@
       <c r="V37" s="84"/>
       <c r="W37" s="90"/>
     </row>
-    <row r="38" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
         <v>28</v>
       </c>
@@ -2613,7 +2619,7 @@
       <c r="V38" s="78"/>
       <c r="W38" s="80"/>
     </row>
-    <row r="39" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
         <v>29</v>
       </c>
@@ -2642,7 +2648,7 @@
       <c r="V39" s="39"/>
       <c r="W39" s="41"/>
     </row>
-    <row r="40" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
         <v>30</v>
       </c>
@@ -2671,7 +2677,7 @@
       <c r="V40" s="39"/>
       <c r="W40" s="41"/>
     </row>
-    <row r="41" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
         <v>31</v>
       </c>
@@ -2700,7 +2706,7 @@
       <c r="V41" s="39"/>
       <c r="W41" s="41"/>
     </row>
-    <row r="42" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
         <v>32</v>
       </c>
@@ -2729,9 +2735,9 @@
       <c r="V42" s="64"/>
       <c r="W42" s="67"/>
     </row>
-    <row r="43" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="75" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B43" s="70">
         <v>160</v>
@@ -2758,9 +2764,9 @@
       <c r="V43" s="68"/>
       <c r="W43" s="69"/>
     </row>
-    <row r="44" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="76" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B44" s="70">
         <v>40</v>
